--- a/datasheets/Huertas_et_al_1995.xlsx
+++ b/datasheets/Huertas_et_al_1995.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="130">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capra ibex</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/0016-7037(95)00286-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huertas et al. (1995)</t>
   </si>
   <si>
     <t xml:space="preserve">Capra sp.</t>
@@ -566,12 +572,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP1048576"/>
+  <dimension ref="A1:AQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+      <selection pane="bottomLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2:AQ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -603,11 +609,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="48.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="43" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="17.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="44" style="1" width="11.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="11.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,6 +740,9 @@
       </c>
       <c r="AP1" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,34 +750,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>14.7</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="1" t="n">
@@ -776,10 +786,13 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="AO2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,31 +800,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>16.2</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="1" t="n">
@@ -823,10 +836,13 @@
         <v>700</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,31 +850,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>16.8</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="1" t="n">
@@ -867,10 +883,13 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="AO4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,34 +897,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>17.4</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="1" t="n">
@@ -917,10 +936,13 @@
         <v>850</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,34 +950,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>19.3</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="1" t="n">
@@ -964,10 +986,13 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="AO6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,34 +1000,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>19.4</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="1" t="n">
@@ -1011,10 +1036,13 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="AO7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,31 +1050,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>22.3</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="1" t="n">
@@ -1055,10 +1083,13 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="AO8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,31 +1097,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>23.7</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="1" t="n">
@@ -1099,10 +1130,13 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="AO9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,34 +1144,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>16.2</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="1" t="n">
@@ -1146,10 +1180,13 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="AO10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,34 +1194,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>16</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="1" t="n">
@@ -1193,10 +1230,13 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="AO11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,34 +1244,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>17.4</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="1" t="n">
@@ -1240,10 +1280,13 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="AO12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,34 +1294,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>14.3</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="1" t="n">
@@ -1287,10 +1330,13 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="AO13" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,34 +1344,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>14</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="1" t="n">
@@ -1334,10 +1380,13 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="AO14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,34 +1394,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>13.1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="1" t="n">
@@ -1381,10 +1430,13 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="AO15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,34 +1444,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="1" t="n">
@@ -1428,10 +1480,13 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="AO16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,34 +1494,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>18.2</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="1" t="n">
@@ -1475,10 +1530,13 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="AO17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,34 +1544,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>18.8</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="1" t="n">
@@ -1522,10 +1580,13 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="AO18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,34 +1594,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>16.1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="1" t="n">
@@ -1569,10 +1630,13 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="AO19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,34 +1644,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>19.2</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="1" t="n">
@@ -1616,10 +1680,13 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="AO20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,34 +1694,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>16.6</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="1" t="n">
@@ -1663,10 +1730,13 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="AO21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,34 +1744,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>16.2</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="1" t="n">
@@ -1710,10 +1780,13 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="AO22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,34 +1794,34 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>19.3</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="1" t="n">
@@ -1762,34 +1835,34 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>18.9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="1" t="n">
@@ -1803,34 +1876,34 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>18.3</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="1" t="n">
@@ -1844,34 +1917,34 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>20.1</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="1" t="n">
@@ -1888,31 +1961,31 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>19</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="1" t="n">
@@ -1926,34 +1999,34 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>20.4</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="1" t="n">
@@ -1970,34 +2043,34 @@
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>23.4</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="1" t="n">
@@ -2011,34 +2084,34 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>23.5</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="1" t="n">
@@ -2052,34 +2125,34 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>21.6</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="1" t="n">
@@ -2096,34 +2169,34 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>20.9</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="1" t="n">
@@ -2137,34 +2210,34 @@
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>20.4</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="1" t="n">
@@ -2178,34 +2251,34 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>17.7</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="1" t="n">
@@ -2219,34 +2292,34 @@
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>17.4</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="1" t="n">
@@ -2260,34 +2333,34 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>16.6</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="1" t="n">
@@ -2301,34 +2374,34 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>15.4</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="1" t="n">
@@ -2343,34 +2416,34 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>14.4</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="1" t="n">
@@ -2385,34 +2458,34 @@
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>16</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="1" t="n">
@@ -2427,34 +2500,34 @@
         <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40" s="1" t="n">
         <v>16.5</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="1" t="n">
@@ -2469,34 +2542,34 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>16.7</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="1" t="n">
@@ -2510,34 +2583,34 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>17.4</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="1" t="n">
@@ -2551,34 +2624,34 @@
         <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>17.5</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="1" t="n">
@@ -2592,34 +2665,34 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>19.6</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="1" t="n">
@@ -2633,34 +2706,34 @@
         <v>23</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>21.2</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="1" t="n">
@@ -2674,34 +2747,34 @@
         <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46" s="1" t="n">
         <v>24.5</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N46" s="1" t="n">
         <v>-6.3</v>
@@ -2712,34 +2785,34 @@
         <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>21.2</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N47" s="1" t="n">
         <v>-5.5</v>
@@ -2750,34 +2823,34 @@
         <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>21.7</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N48" s="1" t="n">
         <v>-5</v>
@@ -2788,34 +2861,34 @@
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K49" s="1" t="n">
         <v>22.5</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N49" s="1" t="n">
         <v>-5</v>
@@ -2826,34 +2899,34 @@
         <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>18.5</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N50" s="1" t="n">
         <v>-1</v>
@@ -2870,34 +2943,34 @@
         <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51" s="1" t="n">
         <v>19.5</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N51" s="1" t="n">
         <v>-1.5</v>
@@ -2914,34 +2987,34 @@
         <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52" s="1" t="n">
         <v>20</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N52" s="1" t="n">
         <v>-1.5</v>
@@ -2958,34 +3031,34 @@
         <v>31</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>20.5</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N53" s="1" t="n">
         <v>-1</v>
@@ -3002,34 +3075,34 @@
         <v>32</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" s="1" t="n">
         <v>20.8</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N54" s="1" t="n">
         <v>-1</v>
@@ -3046,34 +3119,34 @@
         <v>33</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55" s="1" t="n">
         <v>22</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N55" s="1" t="n">
         <v>-1</v>
@@ -3090,34 +3163,34 @@
         <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>23</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N56" s="1" t="n">
         <v>-1</v>
@@ -3134,34 +3207,34 @@
         <v>35</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>22.7</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N57" s="1" t="n">
         <v>-1</v>
@@ -3178,34 +3251,34 @@
         <v>36</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>24.5</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N58" s="1" t="n">
         <v>-1</v>
@@ -3222,34 +3295,34 @@
         <v>37</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59" s="1" t="n">
         <v>25.6</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N59" s="1" t="n">
         <v>-1.5</v>
@@ -3266,34 +3339,34 @@
         <v>38</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60" s="1" t="n">
         <v>25.3</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N60" s="1" t="n">
         <v>-1</v>
@@ -3310,34 +3383,34 @@
         <v>39</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61" s="1" t="n">
         <v>26.5</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N61" s="1" t="n">
         <v>-1</v>
@@ -3354,34 +3427,34 @@
         <v>40</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62" s="1" t="n">
         <v>22.3</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N62" s="1" t="n">
         <v>-7.5</v>
@@ -3392,34 +3465,34 @@
         <v>41</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>14.3</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N63" s="1" t="n">
         <v>-11</v>

--- a/datasheets/Huertas_et_al_1995.xlsx
+++ b/datasheets/Huertas_et_al_1995.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="130">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -574,10 +574,10 @@
   </sheetPr>
   <dimension ref="A1:AQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE1"/>
-      <selection pane="bottomLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2:AQ22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I65" activeCellId="0" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1829,6 +1829,12 @@
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
+      <c r="AP23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -1870,6 +1876,12 @@
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
+      <c r="AP24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -1911,6 +1923,12 @@
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
+      <c r="AP25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -1955,6 +1973,12 @@
       <c r="V26" s="1" t="n">
         <v>1200</v>
       </c>
+      <c r="AP26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -1993,6 +2017,12 @@
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
+      <c r="AP27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -2037,6 +2067,12 @@
       <c r="V28" s="1" t="n">
         <v>1000</v>
       </c>
+      <c r="AP28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -2078,6 +2114,12 @@
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
+      <c r="AP29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -2119,6 +2161,12 @@
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
+      <c r="AP30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -2163,6 +2211,12 @@
       <c r="V31" s="1" t="n">
         <v>700</v>
       </c>
+      <c r="AP31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -2204,6 +2258,12 @@
       </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
+      <c r="AP32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -2245,6 +2305,12 @@
       </c>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
+      <c r="AP33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -2286,6 +2352,12 @@
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
+      <c r="AP34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -2327,6 +2399,12 @@
       </c>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
+      <c r="AP35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -2368,6 +2446,12 @@
       </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
+      <c r="AP36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -2410,6 +2494,12 @@
       <c r="S37" s="7"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
+      <c r="AP37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -2452,6 +2542,12 @@
       <c r="S38" s="7"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
+      <c r="AP38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -2494,6 +2590,12 @@
       <c r="S39" s="7"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
+      <c r="AP39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -2536,6 +2638,12 @@
       <c r="S40" s="7"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
+      <c r="AP40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -2577,6 +2685,12 @@
       </c>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
+      <c r="AP41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ41" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -2618,6 +2732,12 @@
       </c>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
+      <c r="AP42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -2659,6 +2779,12 @@
       </c>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
+      <c r="AP43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -2700,6 +2826,12 @@
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
+      <c r="AP44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -2741,6 +2873,12 @@
       </c>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
+      <c r="AP45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -2779,6 +2917,12 @@
       <c r="N46" s="1" t="n">
         <v>-6.3</v>
       </c>
+      <c r="AP46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -2817,6 +2961,12 @@
       <c r="N47" s="1" t="n">
         <v>-5.5</v>
       </c>
+      <c r="AP47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -2855,6 +3005,12 @@
       <c r="N48" s="1" t="n">
         <v>-5</v>
       </c>
+      <c r="AP48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -2893,6 +3049,12 @@
       <c r="N49" s="1" t="n">
         <v>-5</v>
       </c>
+      <c r="AP49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -2937,6 +3099,12 @@
       <c r="U50" s="1" t="n">
         <v>45.05</v>
       </c>
+      <c r="AP50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -2981,6 +3149,12 @@
       <c r="U51" s="1" t="n">
         <v>38.7</v>
       </c>
+      <c r="AP51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -3025,6 +3199,12 @@
       <c r="U52" s="1" t="n">
         <v>38.7</v>
       </c>
+      <c r="AP52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -3069,6 +3249,12 @@
       <c r="U53" s="1" t="n">
         <v>45.5</v>
       </c>
+      <c r="AP53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ53" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -3113,6 +3299,12 @@
       <c r="U54" s="1" t="n">
         <v>44.9</v>
       </c>
+      <c r="AP54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ54" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -3157,6 +3349,12 @@
       <c r="U55" s="1" t="n">
         <v>42.1</v>
       </c>
+      <c r="AP55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ55" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -3201,6 +3399,12 @@
       <c r="U56" s="1" t="n">
         <v>44.08</v>
       </c>
+      <c r="AP56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ56" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -3245,6 +3449,12 @@
       <c r="U57" s="1" t="n">
         <v>44.08</v>
       </c>
+      <c r="AP57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ57" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -3289,6 +3499,12 @@
       <c r="U58" s="1" t="n">
         <v>46.62</v>
       </c>
+      <c r="AP58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ58" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -3333,6 +3549,12 @@
       <c r="U59" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ59" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -3377,6 +3599,12 @@
       <c r="U60" s="1" t="n">
         <v>45.05</v>
       </c>
+      <c r="AP60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ60" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -3421,6 +3649,12 @@
       <c r="U61" s="1" t="n">
         <v>48.47</v>
       </c>
+      <c r="AP61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ61" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -3459,6 +3693,12 @@
       <c r="N62" s="1" t="n">
         <v>-7.5</v>
       </c>
+      <c r="AP62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ62" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -3496,6 +3736,12 @@
       </c>
       <c r="N63" s="1" t="n">
         <v>-11</v>
+      </c>
+      <c r="AP63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ63" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
